--- a/00 Model Price Targets 00.xlsx
+++ b/00 Model Price Targets 00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F46E759-F5E5-4C46-81BD-C5A5B1B2F5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282599F-F194-4AF8-9163-9DD07AA7A0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -607,15 +607,15 @@
   <dimension ref="B2:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -629,7 +629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>50</v>
       </c>
@@ -640,7 +640,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>57</v>
       </c>
@@ -648,12 +648,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -661,7 +661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>45</v>
       </c>
@@ -669,22 +669,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -692,7 +692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
         <v>26</v>
       </c>
@@ -700,7 +700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>52</v>
       </c>
@@ -708,12 +708,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -721,17 +721,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>31</v>
       </c>
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
         <v>44</v>
       </c>
@@ -747,22 +747,22 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -770,7 +770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" s="8" t="s">
         <v>43</v>
       </c>
@@ -778,12 +778,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G31" t="s">
         <v>42</v>
       </c>
@@ -806,20 +806,20 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" style="1"/>
-    <col min="5" max="5" width="10.265625" customWidth="1"/>
-    <col min="6" max="6" width="10.265625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="9.265625" customWidth="1"/>
-    <col min="9" max="9" width="6.73046875" customWidth="1"/>
-    <col min="10" max="10" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -848,7 +848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>13</v>
       </c>
@@ -878,7 +878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
@@ -908,7 +908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -938,7 +938,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -965,7 +965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -992,7 +992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1079,67 +1079,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30" s="3"/>
     </row>
   </sheetData>

--- a/00 Model Price Targets 00.xlsx
+++ b/00 Model Price Targets 00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E282599F-F194-4AF8-9163-9DD07AA7A0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C63BA3-BD9B-4BAB-BAA1-E3ADDFC0BD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -121,15 +121,6 @@
     <t>Beverage Companies</t>
   </si>
   <si>
-    <t>Communication Services:</t>
-  </si>
-  <si>
-    <t>Consumer Discretionary:</t>
-  </si>
-  <si>
-    <t>Consumer Staples:</t>
-  </si>
-  <si>
     <t>Energy:</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>Indexes:</t>
   </si>
   <si>
-    <t>SPX</t>
-  </si>
-  <si>
     <t>QQQ</t>
   </si>
   <si>
@@ -211,15 +199,9 @@
     <t>Areo &amp; Defense</t>
   </si>
   <si>
-    <t>Trad Media &amp; Entertainment</t>
-  </si>
-  <si>
     <t>Clothing &amp; Footwear</t>
   </si>
   <si>
-    <t>Supply Chain and Logistics</t>
-  </si>
-  <si>
     <t>Home Builders</t>
   </si>
   <si>
@@ -242,6 +224,27 @@
   </si>
   <si>
     <t>Focus on Fin-Tech watchlist and work on models for all companies &gt; $10b</t>
+  </si>
+  <si>
+    <t>SECTORS</t>
+  </si>
+  <si>
+    <t>Staples:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discretionary:</t>
+  </si>
+  <si>
+    <t>Communications:</t>
+  </si>
+  <si>
+    <t>Trad Media</t>
+  </si>
+  <si>
+    <t>Updated:</t>
+  </si>
+  <si>
+    <t>VOO</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +326,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -604,195 +608,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BDB6D1-5B4A-4E92-9D12-B635DE010EAD}">
-  <dimension ref="B2:M31"/>
+  <dimension ref="B2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>65</v>
       </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
+      <c r="C14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G31" t="s">
-        <v>42</v>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{D074D004-FF58-466B-B686-6E5D7FE21971}"/>
-    <hyperlink ref="C23" r:id="rId2" display="Fin Tech" xr:uid="{84504357-0F36-4D2C-850C-BC6DD9EA9A40}"/>
-    <hyperlink ref="C29" r:id="rId3" display="Med Devices" xr:uid="{52D8FC5C-A500-46E9-BA41-680E2C121724}"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{D074D004-FF58-466B-B686-6E5D7FE21971}"/>
+    <hyperlink ref="C18" r:id="rId2" xr:uid="{84504357-0F36-4D2C-850C-BC6DD9EA9A40}"/>
+    <hyperlink ref="C23" r:id="rId3" display="Med Devices" xr:uid="{52D8FC5C-A500-46E9-BA41-680E2C121724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1073,7 +1102,7 @@
         <v>-4.5714285714293368E-4</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>21</v>

--- a/00 Model Price Targets 00.xlsx
+++ b/00 Model Price Targets 00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C63BA3-BD9B-4BAB-BAA1-E3ADDFC0BD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60E9DF-2AC1-4C57-8474-8306345109EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>VOO</t>
+  </si>
+  <si>
+    <t>Financial Resources:</t>
+  </si>
+  <si>
+    <t>U.S. margin/ROIC by sector (Jan. '25)</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <dimension ref="B2:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,10 +682,16 @@
       <c r="B7" t="s">
         <v>64</v>
       </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -822,6 +834,7 @@
     <hyperlink ref="C13" r:id="rId1" xr:uid="{D074D004-FF58-466B-B686-6E5D7FE21971}"/>
     <hyperlink ref="C18" r:id="rId2" xr:uid="{84504357-0F36-4D2C-850C-BC6DD9EA9A40}"/>
     <hyperlink ref="C23" r:id="rId3" display="Med Devices" xr:uid="{52D8FC5C-A500-46E9-BA41-680E2C121724}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{BFB8FC58-832A-48DD-A4D0-95585AE8E79A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/00 Model Price Targets 00.xlsx
+++ b/00 Model Price Targets 00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60E9DF-2AC1-4C57-8474-8306345109EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82077AD-B4F0-4E06-89D1-8F24D64B96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Utilities:</t>
   </si>
   <si>
-    <t>Cintas deal fell through and Trump tariffs went into effect, resulting in a gap-down in stock price. Shouldn’t chase losers, but I bought a share to keep an eye on price movements</t>
-  </si>
-  <si>
     <t>Indexes:</t>
   </si>
   <si>
@@ -251,6 +248,51 @@
   </si>
   <si>
     <t>U.S. margin/ROIC by sector (Jan. '25)</t>
+  </si>
+  <si>
+    <t>Closed after tariff bounce… too spooked</t>
+  </si>
+  <si>
+    <t>HIMS</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Going long Affirm</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>Cintas deal fell through and Trump tariffs went into effect, resulting in a gap-down in stock price. Shouldn’t chase losers, but I bought a share to keep an eye on price movements. Closed after tariff bounce… too spooked</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>Closed to book some quick profits… don’t want to be over-exposed</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>Closed to book some quick profits after NOVO deal; still could be a decent long. I liked it in the $20's</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>BSX</t>
+  </si>
+  <si>
+    <t>Finish by YE 2025</t>
   </si>
 </sst>
 </file>
@@ -312,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +375,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5BDB6D1-5B4A-4E92-9D12-B635DE010EAD}">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,107 +672,110 @@
     <col min="5" max="5" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>62</v>
       </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -741,22 +787,22 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -766,7 +812,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -776,7 +822,7 @@
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -786,7 +832,7 @@
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -796,12 +842,12 @@
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -811,12 +857,12 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -826,7 +872,7 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -845,7 +891,7 @@
   <dimension ref="B2:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1046,7 @@
         <v>302.27</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" ref="H6:H7" si="0">G6/E6-1</f>
+        <f t="shared" ref="H6:H8" si="0">G6/E6-1</f>
         <v>-0.22724716228653241</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1024,11 +1070,14 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>167.39</v>
+        <v>173.45</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="0"/>
-        <v>8.195979574688117E-2</v>
+        <v>0.12112985585934966</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
@@ -1036,152 +1085,330 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
-        <v>45635</v>
+        <v>45629</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8">
-        <v>35.75</v>
+        <v>91.8</v>
       </c>
       <c r="F8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>20.260000000000002</v>
+        <v>60.11</v>
       </c>
       <c r="H8" s="3">
-        <f>G8/E8-1</f>
-        <v>-0.4332867132867132</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>-0.34520697167755987</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
-        <v>45709</v>
+        <v>45635</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9">
-        <v>28.6</v>
+        <v>35.75</v>
       </c>
       <c r="F9" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>32.979999999999997</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="H9" s="3">
         <f>G9/E9-1</f>
-        <v>0.15314685314685295</v>
+        <v>-0.4332867132867132</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
-        <v>45742</v>
+        <v>45709</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>175</v>
+        <v>28.6</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>174.92</v>
-      </c>
-      <c r="H10" s="3">
-        <f>G10/E10-1</f>
-        <v>-4.5714285714293368E-4</v>
-      </c>
-      <c r="I10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45712</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>217.5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45742</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>170</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>175</v>
+      </c>
+      <c r="H12" s="3">
+        <f>G12/E12-1</f>
+        <v>2.9411764705882248E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>45747</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>15.74</v>
+      </c>
+      <c r="F13" s="1">
+        <v>6</v>
+      </c>
       <c r="H13" s="3"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45747</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>83.02</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3</v>
+      </c>
       <c r="H14" s="3"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H15" s="3"/>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="10">
+        <v>45754</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>264.44</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>286.77999999999997</v>
+      </c>
+      <c r="H15" s="3">
+        <f>G15/E15-1</f>
+        <v>8.4480411435486236E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45768</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>148.93</v>
+      </c>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45769</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>26</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>35.61</v>
+      </c>
+      <c r="H17" s="3">
+        <f>G17/E17-1</f>
+        <v>0.36961538461538468</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45770</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>250</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6</v>
+      </c>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45775</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19">
+        <v>306.72000000000003</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45777</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>102.97</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H30" s="3"/>
     </row>
   </sheetData>

--- a/00 Model Price Targets 00.xlsx
+++ b/00 Model Price Targets 00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82077AD-B4F0-4E06-89D1-8F24D64B96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F646F451-5498-4381-A3E2-44A7B244CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/00 Model Price Targets 00.xlsx
+++ b/00 Model Price Targets 00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F646F451-5498-4381-A3E2-44A7B244CF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63037905-3CB4-419A-8301-2FDC27B1EBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Updated:</t>
   </si>
   <si>
-    <t>VOO</t>
-  </si>
-  <si>
     <t>Financial Resources:</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>XYZ</t>
   </si>
   <si>
-    <t>Going long Affirm</t>
-  </si>
-  <si>
     <t>BK</t>
   </si>
   <si>
@@ -274,18 +268,12 @@
     <t>PEN</t>
   </si>
   <si>
-    <t>Closed to book some quick profits… don’t want to be over-exposed</t>
-  </si>
-  <si>
     <t>CRM</t>
   </si>
   <si>
     <t>GOOGL</t>
   </si>
   <si>
-    <t>Closed to book some quick profits after NOVO deal; still could be a decent long. I liked it in the $20's</t>
-  </si>
-  <si>
     <t>GLD</t>
   </si>
   <si>
@@ -293,6 +281,60 @@
   </si>
   <si>
     <t>Finish by YE 2025</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>RNMBY</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>5/2/205</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>IOT</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>Exited 50% of position to book some quick profits after NOVO deal; still could be a decent long … Closed remaining position after 5/5/2025 earnings call after price went parabolic on a decent beat</t>
+  </si>
+  <si>
+    <t>COKE</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Bad Earnings report and guidance + just not feelin the stock after more research … tough break</t>
+  </si>
+  <si>
+    <t>QTWO</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>Exiting … Going long Affirm</t>
+  </si>
+  <si>
+    <t>5% in a day… easy money in hand</t>
+  </si>
+  <si>
+    <t>SMCI</t>
+  </si>
+  <si>
+    <t>What a dog of a company … should stay short but it's still a crazy AI stock operated by shady managers</t>
   </si>
 </sst>
 </file>
@@ -354,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,7 +417,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -660,7 +701,7 @@
   <dimension ref="B2:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,15 +735,15 @@
         <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
-        <v>67</v>
+      <c r="G4" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="M4" t="s">
         <v>60</v>
@@ -729,7 +770,7 @@
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
@@ -737,7 +778,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
@@ -881,6 +922,7 @@
     <hyperlink ref="C18" r:id="rId2" xr:uid="{84504357-0F36-4D2C-850C-BC6DD9EA9A40}"/>
     <hyperlink ref="C23" r:id="rId3" display="Med Devices" xr:uid="{52D8FC5C-A500-46E9-BA41-680E2C121724}"/>
     <hyperlink ref="G8" r:id="rId4" xr:uid="{BFB8FC58-832A-48DD-A4D0-95585AE8E79A}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00D10E4B-6F23-4B1C-8051-B68DA25ACD5A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -888,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J30"/>
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,64 +1095,64 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45629</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>91.8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>60.11</v>
+      </c>
+      <c r="H7" s="3">
+        <f>G7/E7-1</f>
+        <v>-0.34520697167755987</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>45632</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7">
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
         <v>154.71</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>173.45</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>0.12112985585934966</v>
       </c>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="2">
-        <v>45629</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>91.8</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>60.11</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>-0.34520697167755987</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1143,67 +1185,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2">
-        <v>45709</v>
+        <v>45678</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E10">
-        <v>28.6</v>
+        <v>104.56</v>
       </c>
       <c r="F10" s="1">
         <v>5</v>
       </c>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2">
-        <v>45712</v>
+        <v>45700</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>217.5</v>
+        <v>53.5</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>46.28</v>
+      </c>
+      <c r="H11" s="3">
+        <f>G11/E11-1</f>
+        <v>-0.13495327102803734</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2">
-        <v>45742</v>
+        <v>45707</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>170</v>
+        <v>59.13</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>175</v>
+        <v>47.62</v>
       </c>
       <c r="H12" s="3">
         <f>G12/E12-1</f>
-        <v>2.9411764705882248E-2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
+        <v>-0.19465584305766959</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>22</v>
@@ -1211,113 +1267,101 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>45747</v>
+        <v>45709</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>15.74</v>
+        <v>28.6</v>
       </c>
       <c r="F13" s="1">
         <v>6</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2">
-        <v>45747</v>
+        <v>45712</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14">
-        <v>83.02</v>
+        <v>217.5</v>
       </c>
       <c r="F14" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="10">
-        <v>45754</v>
+        <v>94</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45770</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>264.44</v>
+        <v>217.19</v>
       </c>
       <c r="F15" s="1">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>286.77999999999997</v>
-      </c>
-      <c r="H15" s="3">
-        <f>G15/E15-1</f>
-        <v>8.4480411435486236E-2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2">
-        <v>45768</v>
+        <v>45737</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E16">
-        <v>148.93</v>
+        <v>73.72</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2">
-        <v>45769</v>
+        <v>45742</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E17">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="F17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>35.61</v>
+        <v>175</v>
       </c>
       <c r="H17" s="3">
         <f>G17/E17-1</f>
-        <v>0.36961538461538468</v>
+        <v>2.9411764705882248E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>22</v>
@@ -1325,16 +1369,16 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2">
-        <v>45770</v>
+        <v>45747</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>250</v>
+        <v>15.74</v>
       </c>
       <c r="F18" s="1">
         <v>6</v>
@@ -1344,72 +1388,293 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2">
-        <v>45775</v>
+        <v>45747</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>306.72000000000003</v>
+        <v>83.02</v>
       </c>
       <c r="F19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2">
-        <v>45777</v>
+        <v>45751</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>102.97</v>
+        <v>1360.52</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3"/>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45754</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>264.44</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45754</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22">
+        <v>63.89</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
       <c r="H22" s="3"/>
+      <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45755</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>35.5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
       <c r="H23" s="3"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45761</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>44.11</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
       <c r="H24" s="3"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45768</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>148.93</v>
+      </c>
+      <c r="F25" s="1">
+        <v>7</v>
+      </c>
       <c r="H25" s="3"/>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="3"/>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45769</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>49.54</v>
+      </c>
+      <c r="H26" s="3">
+        <f>G26/E26-1</f>
+        <v>0.90538461538461545</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45770</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>250</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
       <c r="H27" s="3"/>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45775</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>306.72000000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>6</v>
+      </c>
       <c r="H28" s="3"/>
+      <c r="J28" s="1"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45777</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>102.97</v>
+      </c>
+      <c r="F29" s="1">
+        <v>3</v>
+      </c>
       <c r="H29" s="3"/>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5</v>
+      </c>
       <c r="H30" s="3"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45779</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31">
+        <v>354.25</v>
+      </c>
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>373</v>
+      </c>
+      <c r="H31" s="3">
+        <f>G31/E31-1</f>
+        <v>5.2928722653493354E-2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
